--- a/Report/svmpoly results.xlsx
+++ b/Report/svmpoly results.xlsx
@@ -145,37 +145,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8185797101449276</v>
+        <v>0.8492753623188406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9178478260869565</v>
+        <v>0.8881739130434783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8328344564207669</v>
+        <v>0.7915496001728981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9100595627276712</v>
+        <v>0.9217856927982673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.832834456420767</v>
+        <v>0.7915496001728982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8185797101449276</v>
+        <v>0.8492753623188406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.825645560923556</v>
+        <v>0.8193970580010067</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2728599033816425</v>
+        <v>0.28309178743961355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.32762801932367147</v>
+        <v>0.3576425120772947</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8682137681159421</v>
+        <v>0.8687246376811595</v>
       </c>
     </row>
     <row r="3">
@@ -183,37 +183,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7710579710144928</v>
+        <v>0.6623333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8844130434782609</v>
+        <v>0.9093550724637681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.769340891343957</v>
+        <v>0.7851056519498368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8854010997780132</v>
+        <v>0.8434101754150145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.769340891343957</v>
+        <v>0.7851056519498368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7710579710144928</v>
+        <v>0.6623333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7701984741665099</v>
+        <v>0.7185126955428033</v>
       </c>
       <c r="I3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2570193236714976</v>
+        <v>0.22077777777777777</v>
       </c>
       <c r="K3" t="n">
-        <v>0.33407729468599034</v>
+        <v>0.281207729468599</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8277355072463768</v>
+        <v>0.7858442028985507</v>
       </c>
     </row>
     <row r="4">
@@ -221,37 +221,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9433188405797102</v>
+        <v>0.9358985507246377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9642173913043478</v>
+        <v>0.9262246376811594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9294843417538949</v>
+        <v>0.8638139062040182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97144692749666</v>
+        <v>0.9665537423813917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9294843417538949</v>
+        <v>0.8638139062040183</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9433188405797102</v>
+        <v>0.9358985507246377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9363504930696915</v>
+        <v>0.8984126100808303</v>
       </c>
       <c r="I4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.31443961352657007</v>
+        <v>0.3119661835748792</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3382946859903382</v>
+        <v>0.3611497584541063</v>
       </c>
       <c r="L4" t="n">
-        <v>0.953768115942029</v>
+        <v>0.9310615942028986</v>
       </c>
     </row>
   </sheetData>
